--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ghrl-Gpr39.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ghrl-Gpr39.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.799443333333333</v>
+        <v>2.451944333333334</v>
       </c>
       <c r="H2">
-        <v>8.39833</v>
+        <v>7.355833000000001</v>
       </c>
       <c r="I2">
-        <v>0.03261182562555668</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="J2">
-        <v>0.03261182562555667</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>4.276999789292222</v>
+        <v>3.746089542929222</v>
       </c>
       <c r="R2">
-        <v>38.49299810363</v>
+        <v>33.714805886363</v>
       </c>
       <c r="S2">
-        <v>0.03261182562555668</v>
+        <v>0.02621625561007551</v>
       </c>
       <c r="T2">
-        <v>0.03261182562555667</v>
+        <v>0.02621625561007551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>8.371696</v>
       </c>
       <c r="I3">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="J3">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -641,10 +641,10 @@
         <v>38.370923535056</v>
       </c>
       <c r="S3">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
       <c r="T3">
-        <v>0.03250840228261694</v>
+        <v>0.02983680056709372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.29677933333333</v>
+        <v>24.02567266666667</v>
       </c>
       <c r="H4">
-        <v>45.890338</v>
+        <v>72.07701800000001</v>
       </c>
       <c r="I4">
-        <v>0.1781982490273492</v>
+        <v>0.2568831466810099</v>
       </c>
       <c r="J4">
-        <v>0.1781982490273492</v>
+        <v>0.25688314668101</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>23.37047555365755</v>
+        <v>36.70651079426644</v>
       </c>
       <c r="R4">
-        <v>210.334279982918</v>
+        <v>330.358597148398</v>
       </c>
       <c r="S4">
-        <v>0.1781982490273492</v>
+        <v>0.2568831466810099</v>
       </c>
       <c r="T4">
-        <v>0.1781982490273492</v>
+        <v>0.25688314668101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.267579333333333</v>
+        <v>1.586978666666667</v>
       </c>
       <c r="H5">
-        <v>6.802738000000001</v>
+        <v>4.760936</v>
       </c>
       <c r="I5">
-        <v>0.0264159309567912</v>
+        <v>0.01696801913790191</v>
       </c>
       <c r="J5">
-        <v>0.0264159309567912</v>
+        <v>0.01696801913790192</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>3.464416019924222</v>
+        <v>2.424591825855111</v>
       </c>
       <c r="R5">
-        <v>31.179744179318</v>
+        <v>21.821326432696</v>
       </c>
       <c r="S5">
-        <v>0.0264159309567912</v>
+        <v>0.01696801913790191</v>
       </c>
       <c r="T5">
-        <v>0.0264159309567912</v>
+        <v>0.01696801913790192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.21439733333333</v>
+        <v>49.62511566666666</v>
       </c>
       <c r="H6">
-        <v>153.643192</v>
+        <v>148.875347</v>
       </c>
       <c r="I6">
-        <v>0.5966168257329642</v>
+        <v>0.5305930886400884</v>
       </c>
       <c r="J6">
-        <v>0.5966168257329642</v>
+        <v>0.5305930886400885</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>78.24554403199021</v>
+        <v>75.81743367429075</v>
       </c>
       <c r="R6">
-        <v>704.209896287912</v>
+        <v>682.3569030686169</v>
       </c>
       <c r="S6">
-        <v>0.5966168257329642</v>
+        <v>0.5305930886400884</v>
       </c>
       <c r="T6">
-        <v>0.5966168257329642</v>
+        <v>0.5305930886400885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.47259133333333</v>
+        <v>13.04735633333333</v>
       </c>
       <c r="H7">
-        <v>34.417774</v>
+        <v>39.142069</v>
       </c>
       <c r="I7">
-        <v>0.1336487663747219</v>
+        <v>0.1395026893638304</v>
       </c>
       <c r="J7">
-        <v>0.1336487663747219</v>
+        <v>0.1395026893638304</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>17.52786710523489</v>
+        <v>19.93379884637322</v>
       </c>
       <c r="R7">
-        <v>157.750803947114</v>
+        <v>179.404189617359</v>
       </c>
       <c r="S7">
-        <v>0.1336487663747219</v>
+        <v>0.1395026893638304</v>
       </c>
       <c r="T7">
-        <v>0.1336487663747219</v>
+        <v>0.1395026893638304</v>
       </c>
     </row>
   </sheetData>
